--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12690" tabRatio="868" activeTab="2"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="集合" sheetId="4" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="426" uniqueCount="324">
   <si>
     <t>ArrayList clone()方法</t>
   </si>
@@ -358,9 +358,15 @@
     <t>数据同步</t>
   </si>
   <si>
+    <t>客户端向服务器发送一个监听</t>
+  </si>
+  <si>
     <t>四种类型的数据节点 Znode</t>
   </si>
   <si>
+    <t>满足条件触发事件</t>
+  </si>
+  <si>
     <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
   </si>
   <si>
@@ -569,6 +575,15 @@
   </si>
   <si>
     <t>自己设计一个类似 Dubbo 的 RPC 框架</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务暴露</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务订阅</t>
+  </si>
+  <si>
+    <t>dubbo原理 -服务调用</t>
   </si>
   <si>
     <t>为什么使用消息队列,消息队列有什么优点？</t>
@@ -990,12 +1005,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1032,6 +1047,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1046,9 +1069,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1059,6 +1119,37 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1085,31 +1176,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,54 +1192,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1191,7 +1214,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1203,61 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1269,13 +1370,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1287,91 +1394,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,6 +1405,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1410,6 +1442,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1420,6 +1467,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1449,39 +1505,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1490,10 +1513,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1502,16 +1525,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1520,119 +1543,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1667,6 +1690,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2203,22 +2229,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>235</v>
+        <v>240</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>236</v>
+        <v>241</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="4" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2250,250 +2276,250 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>239</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>240</v>
+        <v>245</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>241</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="I4" s="5"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="3" t="s">
-        <v>243</v>
+        <v>248</v>
       </c>
       <c r="I5" s="5"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
-        <v>244</v>
+        <v>249</v>
       </c>
       <c r="I6" s="5"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>245</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>246</v>
+        <v>251</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>247</v>
+        <v>252</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>248</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="3" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="3" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="3" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="3" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="3" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="3" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="3" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="3" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="3" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="3" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="3" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="3" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="3" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="3" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="3" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="3" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -2518,72 +2544,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -2641,31 +2667,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="C2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2673,31 +2699,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="C3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J3" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2705,31 +2731,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="E4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J4" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2737,31 +2763,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="D5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J5" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2769,28 +2795,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="D6" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J6" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2798,28 +2824,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="D7" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J7" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2827,28 +2853,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>314</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="D8" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="E8" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J8" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2856,25 +2882,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J9" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2882,31 +2908,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="C10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="D10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="E10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="F10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2914,22 +2940,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="F11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="I11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J11" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2937,22 +2963,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J12" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2960,22 +2986,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="F13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J13" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2983,22 +3009,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="F14" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G14" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H14" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I14" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J14" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3006,22 +3032,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
       <c r="F15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J15" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3029,22 +3055,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J16" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3052,22 +3078,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="F17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="G17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="I17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="J17" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -3087,269 +3113,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
+    <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="15" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="15" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="15" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="15" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="H7" s="15"/>
+      <c r="H7" s="16"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="H8" s="15"/>
+      <c r="H8" s="16"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="H9" s="15"/>
+      <c r="H9" s="16"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="H10" s="15"/>
+      <c r="H10" s="16"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="H11" s="15"/>
+      <c r="H11" s="16"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="15" t="s">
         <v>40</v>
       </c>
-      <c r="H12" s="15"/>
+      <c r="H12" s="16"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="H13" s="15"/>
+      <c r="H13" s="16"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="H14" s="15"/>
+      <c r="H14" s="16"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="H15" s="15"/>
+      <c r="H15" s="16"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="H16" s="15"/>
+      <c r="H16" s="16"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="H17" s="15"/>
+      <c r="H17" s="16"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="15"/>
+      <c r="H18" s="16"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="H19" s="15"/>
+      <c r="H19" s="16"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="H20" s="15"/>
+      <c r="H20" s="16"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="15" t="s">
         <v>49</v>
       </c>
       <c r="B21" s="5"/>
-      <c r="H21" s="15"/>
+      <c r="H21" s="16"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="15" t="s">
         <v>50</v>
       </c>
       <c r="B22" s="5"/>
-      <c r="H22" s="15"/>
+      <c r="H22" s="16"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B23" s="5"/>
-      <c r="H23" s="15"/>
+      <c r="H23" s="16"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B24" s="5"/>
-      <c r="H24" s="15"/>
+      <c r="H24" s="16"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B25" s="5"/>
-      <c r="H25" s="15"/>
+      <c r="H25" s="16"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B26" s="5"/>
-      <c r="H26" s="15"/>
+      <c r="H26" s="16"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="15" t="s">
         <v>55</v>
       </c>
       <c r="B27" s="5"/>
-      <c r="H27" s="15"/>
+      <c r="H27" s="16"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="15" t="s">
         <v>56</v>
       </c>
       <c r="B28" s="5"/>
-      <c r="H28" s="15"/>
+      <c r="H28" s="16"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="H29" s="15"/>
+      <c r="H29" s="16"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="H30" s="15"/>
+      <c r="H30" s="16"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="H31" s="15"/>
+      <c r="H31" s="16"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="H32" s="15"/>
+      <c r="H32" s="16"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="H33" s="15"/>
+      <c r="H33" s="16"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="H34" s="15"/>
+      <c r="H34" s="16"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="14" t="s">
         <v>63</v>
       </c>
-      <c r="H35" s="15"/>
+      <c r="H35" s="16"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="15"/>
+      <c r="H36" s="16"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="15"/>
+      <c r="H37" s="16"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="15"/>
+      <c r="H38" s="16"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="15"/>
+      <c r="H39" s="16"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="15"/>
+      <c r="H40" s="16"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="15"/>
+      <c r="H41" s="16"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="15"/>
+      <c r="H42" s="16"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="15"/>
+      <c r="H43" s="16"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="15"/>
+      <c r="H44" s="16"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="15"/>
+      <c r="H45" s="16"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="15"/>
+      <c r="H46" s="16"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="15"/>
+      <c r="H47" s="16"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="15"/>
+      <c r="H48" s="16"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="15"/>
+      <c r="H49" s="16"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="15"/>
+      <c r="H50" s="16"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="15"/>
+      <c r="H51" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3363,8 +3389,8 @@
   <sheetPr/>
   <dimension ref="A1:A34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3374,172 +3400,172 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="13" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="13" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="13" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="13" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="13" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="13" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="13" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="13" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="13" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="13" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="13" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="13" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="13" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="13" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="13" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="13" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="13" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="13" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="13" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="13" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="13" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="13" t="s">
         <v>97</v>
       </c>
     </row>
@@ -3552,10 +3578,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3565,159 +3591,183 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="13" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="13" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="13" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="13" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="13" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="13" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="13" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="13" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:10">
+      <c r="A12" s="13" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="7" t="s">
+      <c r="J12" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="7" t="s">
+    <row r="13" spans="1:10">
+      <c r="A13" s="13" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="7" t="s">
+      <c r="J13" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="7" t="s">
+    <row r="14" spans="1:2">
+      <c r="A14" s="13" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="7" t="s">
+      <c r="B14" s="5"/>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="13" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="7" t="s">
+      <c r="B15" s="5"/>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="13" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="7" t="s">
+      <c r="B16" s="5"/>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="13" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="7" t="s">
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="7" t="s">
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="13" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="7" t="s">
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="13" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="7" t="s">
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="13" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="7" t="s">
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="13" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="7" t="s">
+      <c r="B22" s="5"/>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="13" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="7" t="s">
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="13" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="7" t="s">
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="13" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="7" t="s">
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="13" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="7" t="s">
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="13" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="7" t="s">
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="7" t="s">
+      <c r="B28" s="5"/>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="13" t="s">
         <v>128</v>
       </c>
+      <c r="B29" s="5"/>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B30" s="5"/>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3729,10 +3779,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A52"/>
+  <dimension ref="A1:A55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3744,263 +3794,278 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>129</v>
+      <c r="A1" s="5" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>130</v>
+      <c r="A2" s="5" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>131</v>
+      <c r="A3" s="5" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
-        <v>132</v>
+      <c r="A4" s="12" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>133</v>
+      <c r="A5" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>134</v>
+      <c r="A6" s="5" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>135</v>
+      <c r="A7" s="5" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>136</v>
+      <c r="A8" s="5" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>137</v>
+      <c r="A9" s="5" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>138</v>
+      <c r="A10" s="5" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>139</v>
+      <c r="A11" s="5" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:1">
       <c r="A37" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" spans="1:1">
       <c r="A38" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" spans="1:1">
       <c r="A39" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" spans="1:1">
       <c r="A40" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" spans="1:1">
       <c r="A41" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="42" spans="1:1">
       <c r="A42" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="43" spans="1:1">
       <c r="A43" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="44" spans="1:1">
       <c r="A44" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" spans="1:1">
       <c r="A45" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="47" spans="1:1">
       <c r="A47" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="48" spans="1:1">
       <c r="A48" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="49" spans="1:1">
       <c r="A49" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="50" spans="1:1">
       <c r="A50" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" spans="1:1">
       <c r="A52" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1">
+      <c r="A53" s="7" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1">
+      <c r="A54" s="7" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1">
+      <c r="A55" s="7" t="s">
+        <v>185</v>
       </c>
     </row>
   </sheetData>
@@ -4026,67 +4091,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="11" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="11" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="11" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="11" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="11" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="11" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="11" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="11" t="s">
-        <v>188</v>
+        <v>193</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="11" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="11" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="11" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="B11" s="9"/>
     </row>
@@ -4113,52 +4178,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="7" t="s">
-        <v>196</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="7" t="s">
-        <v>197</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="7" t="s">
-        <v>198</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="7" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="7" t="s">
-        <v>200</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="7" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -4192,128 +4257,128 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>202</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="K6" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="L7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="O7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="L8" t="s">
-        <v>213</v>
+        <v>218</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="L9" t="s">
-        <v>215</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>216</v>
+        <v>221</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>217</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>218</v>
+        <v>223</v>
       </c>
       <c r="L12" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="M13" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="N14" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>223</v>
+        <v>228</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>224</v>
+        <v>229</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="9" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="9" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="9" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -4338,37 +4403,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="7" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="7" t="s">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="7" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>234</v>
+        <v>239</v>
       </c>
       <c r="B6" s="6"/>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868" activeTab="2"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="dubbo" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="322">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="323">
   <si>
     <t>Dubbo 和 Spring Cloud 有什么区别？</t>
   </si>
@@ -743,6 +743,9 @@
   </si>
   <si>
     <t>redis 都有哪些数据类型？</t>
+  </si>
+  <si>
+    <t>skiplist跳跃表</t>
   </si>
   <si>
     <t>分别在哪些场景下使用比较合适？</t>
@@ -1049,31 +1052,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1087,6 +1067,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1103,38 +1120,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1149,23 +1135,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,6 +1149,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1190,6 +1178,21 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1208,13 +1211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1232,19 +1241,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,7 +1259,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1274,13 +1289,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1292,25 +1337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1328,7 +1361,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1346,49 +1385,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1399,45 +1402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1458,6 +1422,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1470,8 +1443,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,11 +1488,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1507,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1519,133 +1522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1678,9 +1681,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1693,6 +1693,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2045,8 +2048,8 @@
   <sheetPr/>
   <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2058,192 +2061,192 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="16" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="16" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="16" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:8">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="16" t="s">
         <v>37</v>
       </c>
       <c r="H38" s="5" t="s">
@@ -2251,7 +2254,7 @@
       </c>
     </row>
     <row r="39" spans="1:8">
-      <c r="A39" s="10" t="s">
+      <c r="A39" s="16" t="s">
         <v>39</v>
       </c>
       <c r="H39" s="5" t="s">
@@ -2259,7 +2262,7 @@
       </c>
     </row>
     <row r="40" spans="1:8">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="16" t="s">
         <v>41</v>
       </c>
       <c r="H40" s="5" t="s">
@@ -2267,52 +2270,52 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="16" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="16" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="16" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="16" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="16" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="16" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="16" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="16" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="10" t="s">
+      <c r="A49" s="16" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+      <c r="A50" s="16" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2339,37 +2342,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B6" s="4"/>
     </row>
@@ -2408,22 +2411,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2454,72 +2457,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
   </sheetData>
@@ -2577,31 +2580,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J2" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2609,31 +2612,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J3" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2641,31 +2644,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2673,31 +2676,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="D5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2705,28 +2708,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="D6" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J6" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2734,28 +2737,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>312</v>
+      </c>
+      <c r="D7" t="s">
         <v>311</v>
       </c>
-      <c r="D7" t="s">
-        <v>310</v>
-      </c>
       <c r="E7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2763,28 +2766,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2792,25 +2795,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J9" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2818,31 +2821,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="D10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="E10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="F10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2850,22 +2853,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J11" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2873,22 +2876,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J12" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2896,22 +2899,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2919,22 +2922,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="F14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J14" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2942,22 +2945,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J15" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2965,22 +2968,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2988,22 +2991,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="J17" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -3028,62 +3031,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="16" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="16" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="16" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="16" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="16" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="16" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="16" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="16" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="16" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="16" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="16" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="12" spans="1:10">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="16" t="s">
         <v>64</v>
       </c>
       <c r="J12" s="5" t="s">
@@ -3091,7 +3094,7 @@
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="16" t="s">
         <v>66</v>
       </c>
       <c r="J13" s="5" t="s">
@@ -3099,112 +3102,112 @@
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="14"/>
+      <c r="B14" s="13"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="16" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="14"/>
+      <c r="B15" s="13"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="16" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="14"/>
+      <c r="B16" s="13"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="14"/>
+      <c r="B17" s="13"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="14"/>
+      <c r="B18" s="13"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="16" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="14"/>
+      <c r="B19" s="13"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="14"/>
+      <c r="B20" s="13"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="16" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="14"/>
+      <c r="B21" s="13"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="16" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="14"/>
+      <c r="B22" s="13"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="16" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="14"/>
+      <c r="B23" s="13"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="16" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="14"/>
+      <c r="B24" s="13"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="14"/>
+      <c r="B25" s="13"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="16" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="14"/>
+      <c r="B26" s="13"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="B27" s="14"/>
+      <c r="B27" s="13"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="16" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="14"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="16" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="14"/>
+      <c r="B29" s="13"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="16" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="14"/>
+      <c r="B30" s="13"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B31" s="14"/>
+      <c r="B31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3218,8 +3221,8 @@
   <sheetPr/>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R7" sqref="R7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A4:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3229,37 +3232,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="14"/>
+      <c r="I4" s="13"/>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="14"/>
+      <c r="I5" s="13"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="14"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
@@ -3488,12 +3491,12 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="14"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3723,147 +3726,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>198</v>
       </c>
     </row>
@@ -3885,269 +3888,269 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="11" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>205</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>206</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="11" t="s">
         <v>207</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="11" t="s">
         <v>209</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="11" t="s">
         <v>210</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>211</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>212</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>213</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>214</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>215</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>216</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>217</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>218</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>219</v>
       </c>
-      <c r="B21" s="14"/>
-      <c r="H21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>220</v>
       </c>
-      <c r="B22" s="14"/>
-      <c r="H22" s="13"/>
+      <c r="B22" s="13"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="B23" s="14"/>
-      <c r="H23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="11" t="s">
         <v>222</v>
       </c>
-      <c r="B24" s="14"/>
-      <c r="H24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="11" t="s">
         <v>223</v>
       </c>
-      <c r="B25" s="14"/>
-      <c r="H25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="B26" s="14"/>
-      <c r="H26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="11" t="s">
         <v>225</v>
       </c>
-      <c r="B27" s="14"/>
-      <c r="H27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="11" t="s">
         <v>226</v>
       </c>
-      <c r="B28" s="14"/>
-      <c r="H28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="11" t="s">
         <v>227</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="11" t="s">
         <v>229</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="11" t="s">
         <v>230</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="11" t="s">
         <v>231</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="11" t="s">
         <v>232</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="11" t="s">
+      <c r="A35" s="10" t="s">
         <v>233</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="13"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="13"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="13"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="13"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="13"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="13"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="13"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="13"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="13"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="13"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="13"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="13"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="13"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="13"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="13"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="13"/>
+      <c r="H51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4159,10 +4162,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A34"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4172,173 +4175,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -4363,67 +4371,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B11" s="9"/>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868" activeTab="7"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="868" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="dubbo" sheetId="2" r:id="rId1"/>
@@ -1004,8 +1004,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1053,51 +1053,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1105,7 +1060,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1127,14 +1082,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
@@ -1143,7 +1090,53 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,15 +1150,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1183,14 +1167,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,7 +1211,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,97 +1301,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,31 +1337,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1367,31 +1355,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1406,45 +1406,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1474,16 +1445,27 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,6 +1484,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1510,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,133 +1522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4165,7 +4165,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="868" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="dubbo" sheetId="2" r:id="rId1"/>
@@ -1002,10 +1002,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="25">
     <font>
@@ -1068,24 +1068,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1104,29 +1089,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -1135,8 +1097,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,9 +1149,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1167,14 +1166,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1189,8 +1188,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1211,7 +1211,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,19 +1235,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,13 +1253,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1265,49 +1319,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1325,43 +1349,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1377,24 +1395,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1402,30 +1402,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1443,17 +1419,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1473,6 +1440,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1484,6 +1460,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1502,6 +1493,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1510,10 +1510,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1522,133 +1522,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -4165,7 +4165,7 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="868" activeTab="7"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="868"/>
   </bookViews>
   <sheets>
     <sheet name="dubbo" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="425" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="318">
   <si>
     <t>Dubbo 和 Spring Cloud 有什么区别？</t>
   </si>
@@ -142,21 +142,12 @@
     <t>spi</t>
   </si>
   <si>
-    <t>启动容器</t>
-  </si>
-  <si>
     <t>Java spi 思想的体现</t>
   </si>
   <si>
-    <t>namespacehandler</t>
-  </si>
-  <si>
     <t>dubbo 的 spi 思想</t>
   </si>
   <si>
-    <t>dubbobeandefaintionparson 配置文件解析器 创建容器</t>
-  </si>
-  <si>
     <t>如何自己扩展 dubbo 中的组件</t>
   </si>
   <si>
@@ -223,13 +214,7 @@
     <t>数据同步</t>
   </si>
   <si>
-    <t>客户端向服务器发送一个监听</t>
-  </si>
-  <si>
     <t>四种类型的数据节点 Znode</t>
-  </si>
-  <si>
-    <t>满足条件触发事件</t>
   </si>
   <si>
     <t>Zookeeper Watcher 机制 -- 数据变更通知</t>
@@ -1003,11 +988,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,16 +1029,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color theme="0"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1066,6 +1051,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -1074,8 +1096,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1089,38 +1134,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1128,45 +1143,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1182,17 +1159,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1211,13 +1188,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1229,13 +1236,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1247,19 +1254,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1271,43 +1272,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1331,13 +1296,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1349,31 +1314,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1385,13 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1407,20 +1384,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1443,8 +1424,28 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1478,30 +1479,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1510,149 +1487,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="29" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1690,12 +1667,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2046,17 +2017,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="6"/>
     <col min="2" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="15.625" style="5" customWidth="1"/>
+    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
     <col min="9" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -2126,197 +2097,188 @@
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="13" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="13" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="13" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="13" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="6" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="6" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="16" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="H38" s="5" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="16" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="H39" s="5" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="16" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="H40" s="5" t="s">
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="16" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="16" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="16" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="16" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="16" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="16" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="16" t="s">
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="16" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="16" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -2342,37 +2304,37 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="B2" s="4"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="B3" s="4"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="6" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="B4" s="4"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="6" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="6" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B6" s="4"/>
     </row>
@@ -2411,22 +2373,22 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:1">
@@ -2457,72 +2419,72 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="3" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="3" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="3" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="3" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="3" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="3" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
   </sheetData>
@@ -2580,31 +2542,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="C2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J2" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2612,31 +2574,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J3" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2644,31 +2606,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J4" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2676,31 +2638,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J5" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2708,28 +2670,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="D6" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2737,28 +2699,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="D7" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J7" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2766,28 +2728,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J8" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2795,25 +2757,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="G9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J9" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2821,31 +2783,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C10" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="E10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J10" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2853,22 +2815,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="F11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J11" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2876,22 +2838,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J12" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2899,22 +2861,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J13" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2922,22 +2884,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="F14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J14" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2945,22 +2907,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="F15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J15" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2968,22 +2930,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="F16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J16" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2991,22 +2953,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="F17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="H17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="I17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="J17" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -3018,10 +2980,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3031,183 +2993,159 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="6" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="16" t="s">
+    <row r="5" spans="1:1">
+      <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="16" t="s">
+    <row r="6" spans="1:1">
+      <c r="A6" s="6" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="16" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="16" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="16" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="6" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="16" t="s">
+    <row r="10" spans="1:1">
+      <c r="A10" s="6" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="16" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="6" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="16" t="s">
+    <row r="12" spans="1:1">
+      <c r="A12" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="16" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="16" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="16" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="J12" s="5" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="16" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="J13" s="5" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="6" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="16" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B14" s="13"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="16" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="13"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B16" s="13"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B17" s="13"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B18" s="13"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="13"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B20" s="13"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B21" s="13"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B22" s="13"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B23" s="13"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="16" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B24" s="13"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="16" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B25" s="13"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="16" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="13"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="16" t="s">
-        <v>81</v>
-      </c>
-      <c r="B27" s="13"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="13"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="16" t="s">
-        <v>83</v>
-      </c>
-      <c r="B29" s="13"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="16" t="s">
-        <v>84</v>
-      </c>
-      <c r="B30" s="13"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B31" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3219,264 +3157,261 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A4:A5"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="4"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="15" t="s">
+    <row r="9" spans="1:1">
+      <c r="A9" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="I4" s="13"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="15" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="4" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="3" t="s">
+    <row r="13" spans="1:1">
+      <c r="A13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="3" t="s">
+    <row r="14" spans="1:1">
+      <c r="A14" s="4" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="3" t="s">
+    <row r="15" spans="1:1">
+      <c r="A15" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="3" t="s">
+    <row r="16" spans="1:1">
+      <c r="A16" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="3" t="s">
+    <row r="17" spans="1:1">
+      <c r="A17" s="4" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="3" t="s">
+    <row r="18" spans="1:1">
+      <c r="A18" s="4" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="3" t="s">
+    <row r="19" spans="1:1">
+      <c r="A19" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="3" t="s">
+    <row r="20" spans="1:1">
+      <c r="A20" s="4" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="3" t="s">
+    <row r="21" spans="1:1">
+      <c r="A21" s="4" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="3" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="3" t="s">
+    <row r="23" spans="1:1">
+      <c r="A23" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="24" spans="1:1">
+      <c r="A24" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="3" t="s">
+    <row r="25" spans="1:1">
+      <c r="A25" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="3" t="s">
+    <row r="26" spans="1:1">
+      <c r="A26" s="4" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="3" t="s">
+    <row r="27" spans="1:1">
+      <c r="A27" s="4" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="3" t="s">
+    <row r="28" spans="1:1">
+      <c r="A28" s="4" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="3" t="s">
+    <row r="29" spans="1:1">
+      <c r="A29" s="4" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="3" t="s">
+    <row r="30" spans="1:1">
+      <c r="A30" s="4" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="3" t="s">
+    <row r="31" spans="1:1">
+      <c r="A31" s="4" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="3" t="s">
+    <row r="32" spans="1:1">
+      <c r="A32" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="3" t="s">
+    <row r="33" spans="1:1">
+      <c r="A33" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="3" t="s">
+    <row r="34" spans="1:1">
+      <c r="A34" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="35" spans="1:1">
+      <c r="A35" s="4" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row r="36" spans="1:1">
+      <c r="A36" s="4" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+    <row r="37" spans="1:1">
+      <c r="A37" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+    <row r="38" spans="1:1">
+      <c r="A38" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row r="39" spans="1:1">
+      <c r="A39" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="40" spans="1:1">
+      <c r="A40" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="3" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="3" t="s">
+    <row r="42" spans="1:1">
+      <c r="A42" s="4" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="3" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="3" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="3" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="3" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="3" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="3" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
         <v>128</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="3" t="s">
-        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -3502,52 +3437,52 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -3581,128 +3516,128 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="9" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="9" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="9" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="9" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="9" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="K6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="9" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="O7" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="9" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="L8" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="9" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L9" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="9" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="9" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="9" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="M13" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="N14" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="9" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="9" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="9" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -3727,147 +3662,147 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="13" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="13" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="13" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="13" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="13" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="13" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="13" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="13" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="13" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="13" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="13" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="13" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="13" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="13" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="13" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="13" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="13" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="13" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="13" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="13" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="13" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="13" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="13" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="13" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="13" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="13" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>
@@ -3894,213 +3829,213 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="11" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="11" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="11" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="11" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="11" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="11" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="11" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="11" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="11" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="11" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="11" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="11" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="11" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="11" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="11" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="11" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="11" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="11" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="11" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="B21" s="13"/>
       <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="11" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B22" s="13"/>
       <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="11" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B23" s="13"/>
       <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="11" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B24" s="13"/>
       <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="11" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B25" s="13"/>
       <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="11" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="B26" s="13"/>
       <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="11" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B27" s="13"/>
       <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B28" s="13"/>
       <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="11" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="11" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="11" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="11" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="11" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="11" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="10" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="H35" s="12"/>
     </row>
@@ -4164,8 +4099,8 @@
   <sheetPr/>
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4176,177 +4111,177 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:1">
       <c r="A33" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:1">
       <c r="A34" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:1">
       <c r="A35" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -4371,67 +4306,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="8" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="8" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="8" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="8" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="8" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="8" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="8" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="8" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="8" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="8" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="8" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="B11" s="9"/>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -987,10 +987,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1030,29 +1030,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1067,7 +1045,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1081,10 +1074,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1096,6 +1089,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1104,8 +1134,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1125,53 +1172,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -1183,6 +1183,84 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1278,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,97 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1314,61 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1379,15 +1379,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1402,41 +1393,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1479,6 +1435,50 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1487,145 +1487,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2019,8 +2019,8 @@
   <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="868"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868"/>
   </bookViews>
   <sheets>
     <sheet name="dubbo" sheetId="2" r:id="rId1"/>
@@ -987,10 +987,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1029,13 +1029,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -1045,14 +1038,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1067,7 +1075,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1075,7 +1097,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1090,29 +1119,23 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1135,39 +1158,16 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,19 +1188,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1212,127 +1284,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1350,25 +1314,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,8 +1400,52 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1435,50 +1479,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1487,10 +1487,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,133 +1499,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2017,10 +2017,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A50"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:J12"/>
+      <selection activeCell="F8" sqref="E8:F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2081,10 +2081,11 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:17">
       <c r="A11" s="13" t="s">
         <v>10</v>
       </c>
+      <c r="Q11"/>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="13" t="s">

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -7,9 +7,9 @@
     <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868"/>
   </bookViews>
   <sheets>
-    <sheet name="dubbo" sheetId="2" r:id="rId1"/>
-    <sheet name="zk" sheetId="1" r:id="rId2"/>
-    <sheet name="Netty" sheetId="11" r:id="rId3"/>
+    <sheet name="Netty" sheetId="11" r:id="rId1"/>
+    <sheet name="dubbo" sheetId="2" r:id="rId2"/>
+    <sheet name="zk" sheetId="1" r:id="rId3"/>
     <sheet name="Spring" sheetId="7" r:id="rId4"/>
     <sheet name="springboot" sheetId="10" r:id="rId5"/>
     <sheet name="集合" sheetId="4" r:id="rId6"/>
@@ -28,6 +28,150 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="318">
   <si>
+    <t>Netty 是什么</t>
+  </si>
+  <si>
+    <t>Netty 的特点是什么？</t>
+  </si>
+  <si>
+    <t>内存池原理</t>
+  </si>
+  <si>
+    <t>Netty中如何保证异步串行无锁化</t>
+  </si>
+  <si>
+    <t>高性能序列化协议protobuf</t>
+  </si>
+  <si>
+    <t>什么是 Netty 的零拷贝？</t>
+  </si>
+  <si>
+    <t>堆外内存</t>
+  </si>
+  <si>
+    <t>堆外内存申请</t>
+  </si>
+  <si>
+    <t>为什么使用堆外内存</t>
+  </si>
+  <si>
+    <t>Netty 和 Tomcat 的区别？</t>
+  </si>
+  <si>
+    <t>Netty 中有那种重要组件？</t>
+  </si>
+  <si>
+    <t>Netty 发送消息有几种方式？</t>
+  </si>
+  <si>
+    <t>默认情况 Netty 起多少线程？何时启动？</t>
+  </si>
+  <si>
+    <t>Netty 支持哪些心跳类型设置？</t>
+  </si>
+  <si>
+    <t>netty线程模型</t>
+  </si>
+  <si>
+    <t>Reactor模式（反应，分发）</t>
+  </si>
+  <si>
+    <t>Reactor单线程（NIO）群聊例子</t>
+  </si>
+  <si>
+    <t>Reactor多线程（NIO）</t>
+  </si>
+  <si>
+    <t>Reactor主从多线程</t>
+  </si>
+  <si>
+    <t>Netty模型</t>
+  </si>
+  <si>
+    <t>几种序列化协议</t>
+  </si>
+  <si>
+    <t>粘包、拆包发生原因</t>
+  </si>
+  <si>
+    <t>粘包、拆包解决办法</t>
+  </si>
+  <si>
+    <t>Netty的粘包/拆包是怎么处理的，有哪些实现？</t>
+  </si>
+  <si>
+    <t>Pipeline</t>
+  </si>
+  <si>
+    <t>Netty任务队列有3中</t>
+  </si>
+  <si>
+    <t>ChannelFuture</t>
+  </si>
+  <si>
+    <t>Future-Listener机制</t>
+  </si>
+  <si>
+    <t>ByteBuf</t>
+  </si>
+  <si>
+    <t>handler()和childHandler()的主要区别</t>
+  </si>
+  <si>
+    <t>Bootstrap,ServerBootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap参数说明</t>
+  </si>
+  <si>
+    <t>ChannelHandler</t>
+  </si>
+  <si>
+    <t>pipeline，ChannelPipeline</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext</t>
+  </si>
+  <si>
+    <t>ChannelOption</t>
+  </si>
+  <si>
+    <t>EvenLoopGroup/NioEventLoopGroup</t>
+  </si>
+  <si>
+    <t>Unpooled</t>
+  </si>
+  <si>
+    <t>Netty心跳</t>
+  </si>
+  <si>
+    <t>Netty启动过程源码分析</t>
+  </si>
+  <si>
+    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
+  </si>
+  <si>
+    <t>ChannelPipeline调度Handle</t>
+  </si>
+  <si>
+    <t>ChannelHandlerContext源码分析</t>
+  </si>
+  <si>
+    <t>Netty心跳源码解析（IdleStateHandler)</t>
+  </si>
+  <si>
+    <t>Eventloop源码</t>
+  </si>
+  <si>
+    <t>handler中加入线程池和Context中添加线程池源码</t>
+  </si>
+  <si>
+    <t>RPC</t>
+  </si>
+  <si>
+    <t>NIO写一个简单的客户端，服务器通讯</t>
+  </si>
+  <si>
     <t>Dubbo 和 Spring Cloud 有什么区别？</t>
   </si>
   <si>
@@ -269,150 +413,6 @@
   </si>
   <si>
     <t>说几个zookeeper常用的命令。</t>
-  </si>
-  <si>
-    <t>Netty 是什么</t>
-  </si>
-  <si>
-    <t>Netty 的特点是什么？</t>
-  </si>
-  <si>
-    <t>内存池原理</t>
-  </si>
-  <si>
-    <t>Netty中如何保证异步串行无锁化</t>
-  </si>
-  <si>
-    <t>高性能序列化协议protobuf</t>
-  </si>
-  <si>
-    <t>什么是 Netty 的零拷贝？</t>
-  </si>
-  <si>
-    <t>堆外内存</t>
-  </si>
-  <si>
-    <t>堆外内存申请</t>
-  </si>
-  <si>
-    <t>为什么使用堆外内存</t>
-  </si>
-  <si>
-    <t>Netty 和 Tomcat 的区别？</t>
-  </si>
-  <si>
-    <t>Netty 中有那种重要组件？</t>
-  </si>
-  <si>
-    <t>Netty 发送消息有几种方式？</t>
-  </si>
-  <si>
-    <t>默认情况 Netty 起多少线程？何时启动？</t>
-  </si>
-  <si>
-    <t>Netty 支持哪些心跳类型设置？</t>
-  </si>
-  <si>
-    <t>netty线程模型</t>
-  </si>
-  <si>
-    <t>Reactor模式（反应，分发）</t>
-  </si>
-  <si>
-    <t>Reactor单线程（NIO）群聊例子</t>
-  </si>
-  <si>
-    <t>Reactor多线程（NIO）</t>
-  </si>
-  <si>
-    <t>Reactor主从多线程</t>
-  </si>
-  <si>
-    <t>Netty模型</t>
-  </si>
-  <si>
-    <t>几种序列化协议</t>
-  </si>
-  <si>
-    <t>粘包、拆包发生原因</t>
-  </si>
-  <si>
-    <t>粘包、拆包解决办法</t>
-  </si>
-  <si>
-    <t>Netty的粘包/拆包是怎么处理的，有哪些实现？</t>
-  </si>
-  <si>
-    <t>Pipeline</t>
-  </si>
-  <si>
-    <t>Netty任务队列有3中</t>
-  </si>
-  <si>
-    <t>ChannelFuture</t>
-  </si>
-  <si>
-    <t>Future-Listener机制</t>
-  </si>
-  <si>
-    <t>ByteBuf</t>
-  </si>
-  <si>
-    <t>handler()和childHandler()的主要区别</t>
-  </si>
-  <si>
-    <t>Bootstrap,ServerBootstrap</t>
-  </si>
-  <si>
-    <t>Bootstrap参数说明</t>
-  </si>
-  <si>
-    <t>ChannelHandler</t>
-  </si>
-  <si>
-    <t>pipeline，ChannelPipeline</t>
-  </si>
-  <si>
-    <t>ChannelHandlerContext</t>
-  </si>
-  <si>
-    <t>ChannelOption</t>
-  </si>
-  <si>
-    <t>EvenLoopGroup/NioEventLoopGroup</t>
-  </si>
-  <si>
-    <t>Unpooled</t>
-  </si>
-  <si>
-    <t>Netty心跳</t>
-  </si>
-  <si>
-    <t>Netty启动过程源码分析</t>
-  </si>
-  <si>
-    <t>Netty接受请求过程源码分析（Netty启动后如何接受客户端请求，当BossGroup和Client产生连接后怎么讲Channel注册到WorkerGroup上）</t>
-  </si>
-  <si>
-    <t>ChannelPipeline调度Handle</t>
-  </si>
-  <si>
-    <t>ChannelHandlerContext源码分析</t>
-  </si>
-  <si>
-    <t>Netty心跳源码解析（IdleStateHandler)</t>
-  </si>
-  <si>
-    <t>Eventloop源码</t>
-  </si>
-  <si>
-    <t>handler中加入线程池和Context中添加线程池源码</t>
-  </si>
-  <si>
-    <t>RPC</t>
-  </si>
-  <si>
-    <t>NIO写一个简单的客户端，服务器通讯</t>
   </si>
   <si>
     <t>Spring中的声明式事务</t>
@@ -988,9 +988,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1031,21 +1031,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1053,9 +1039,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1074,15 +1060,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1097,6 +1077,20 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -1104,7 +1098,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1112,30 +1106,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1158,6 +1136,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1166,8 +1152,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,7 +1188,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1200,7 +1230,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,73 +1356,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1296,79 +1368,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,16 +1382,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1400,8 +1400,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1421,31 +1430,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1465,17 +1460,22 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1487,10 +1487,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,133 +1499,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="5" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2017,274 +2017,265 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:A49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="E8:F8"/>
+      <selection activeCell="E2" sqref="E2:H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="7" width="9" style="5"/>
-    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="4"/>
+    <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:17">
-      <c r="A11" s="13" t="s">
+    <row r="11" spans="1:1">
+      <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="Q11"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="4" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="5" t="s">
+      <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="4" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="5" t="s">
+      <c r="A28" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="5" t="s">
+      <c r="A29" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="5" t="s">
+      <c r="A31" s="4" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="5" t="s">
+      <c r="A32" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="5" t="s">
+      <c r="A33" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="4" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
+      <c r="A39" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+    <row r="45" spans="1:1">
+      <c r="A45" s="4" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="6" t="s">
+    <row r="47" spans="1:1">
+      <c r="A47" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+    <row r="48" spans="1:1">
+      <c r="A48" s="4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
+    <row r="49" spans="1:1">
+      <c r="A49" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="6" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -2981,6 +2972,281 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1:Q50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="E8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="6"/>
+    <col min="2" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="10.25" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="5"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q11"/>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="5" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="5" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="6" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="6" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="6" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1">
+      <c r="A49" s="6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="6" t="s">
+        <v>97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2995,428 +3261,162 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="6" t="s">
-        <v>51</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="6" t="s">
-        <v>52</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="6" t="s">
-        <v>53</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="6" t="s">
-        <v>54</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="6" t="s">
-        <v>55</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="6" t="s">
-        <v>57</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="6" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="6" t="s">
-        <v>59</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="6" t="s">
-        <v>60</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" spans="1:1">
       <c r="A12" s="6" t="s">
-        <v>61</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:1">
       <c r="A13" s="6" t="s">
-        <v>62</v>
+        <v>110</v>
       </c>
     </row>
     <row r="14" spans="1:1">
       <c r="A14" s="6" t="s">
-        <v>63</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="6" t="s">
-        <v>67</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
-        <v>68</v>
+        <v>116</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
-        <v>69</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
-        <v>70</v>
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="6" t="s">
-        <v>71</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
-        <v>72</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="6" t="s">
-        <v>73</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
-        <v>74</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
-        <v>75</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="6" t="s">
-        <v>76</v>
+        <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
-        <v>77</v>
+        <v>125</v>
       </c>
     </row>
     <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
-        <v>78</v>
+        <v>126</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
-        <v>79</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="6" t="s">
-        <v>80</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:A49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -3468,7 +3468,7 @@
     </row>
     <row r="7" spans="1:1">
       <c r="A7" s="6" t="s">
-        <v>127</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" spans="1:1">

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="868"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="666"/>
   </bookViews>
   <sheets>
     <sheet name="Netty" sheetId="11" r:id="rId1"/>
@@ -19,14 +19,15 @@
     <sheet name="分布式事务" sheetId="8" r:id="rId10"/>
     <sheet name="设计模式" sheetId="9" r:id="rId11"/>
     <sheet name="mybatis" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId13"/>
+    <sheet name="携程项目相关" sheetId="14" r:id="rId13"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId14"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="421" uniqueCount="319">
   <si>
     <t>Netty 是什么</t>
   </si>
@@ -923,6 +924,9 @@
   </si>
   <si>
     <t>一对一、一对多的关联查询 ？</t>
+  </si>
+  <si>
+    <t>qconfig</t>
   </si>
   <si>
     <t>spring</t>
@@ -987,9 +991,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1029,19 +1033,39 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1057,6 +1081,61 @@
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1077,59 +1156,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1138,29 +1165,6 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1188,25 +1192,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1218,7 +1222,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1230,7 +1246,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1248,13 +1264,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1266,97 +1324,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1372,6 +1340,42 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1379,6 +1383,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1397,11 +1434,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1430,45 +1473,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1487,10 +1491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1499,137 +1503,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,6 +1662,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -1728,6 +1735,53 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="276225"/>
+          <a:ext cx="4962525" cy="2647950"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2019,258 +2073,257 @@
   <sheetPr/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:H10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="4"/>
-    <col min="2" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="14" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="14" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="14" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="14" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="14" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="14" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="14" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="14" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="14" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="4" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="4" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="4" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="4" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="5" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="5" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="5" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="5" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="5" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="4" t="s">
+      <c r="A42" s="5" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="4" t="s">
+      <c r="A44" s="5" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="4" t="s">
+      <c r="A45" s="5" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="4" t="s">
+      <c r="A46" s="5" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="4" t="s">
+      <c r="A48" s="5" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="4" t="s">
+      <c r="A49" s="5" t="s">
         <v>47</v>
       </c>
     </row>
@@ -2488,6 +2541,29 @@
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2534,31 +2610,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2566,31 +2642,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J3" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2598,31 +2674,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J4" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2630,31 +2706,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="D5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2662,28 +2738,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="D6" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="E6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2691,28 +2767,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>308</v>
+      </c>
+      <c r="D7" t="s">
         <v>307</v>
       </c>
-      <c r="D7" t="s">
-        <v>306</v>
-      </c>
       <c r="E7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2720,28 +2796,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2749,25 +2825,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="G9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J9" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2775,31 +2851,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C10" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="D10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2807,22 +2883,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="I11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -2830,22 +2906,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J12" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -2853,22 +2929,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -2876,22 +2952,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -2899,22 +2975,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J15" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -2922,22 +2998,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -2945,22 +3021,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="I17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="J17" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -2987,68 +3063,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>58</v>
       </c>
       <c r="Q11"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3432,7 +3508,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="14"/>
+    <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3652,8 +3728,8 @@
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3662,147 +3738,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="14" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="14" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="13" t="s">
+      <c r="A4" s="14" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="14" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="14" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="14" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="13" t="s">
+      <c r="A8" s="14" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="14" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="13" t="s">
+      <c r="A10" s="14" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="13" t="s">
+      <c r="A11" s="14" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="13" t="s">
+      <c r="A12" s="14" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="13" t="s">
+      <c r="A13" s="14" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="13" t="s">
+      <c r="A14" s="14" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="13" t="s">
+      <c r="A17" s="14" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="13" t="s">
+      <c r="A18" s="14" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="13" t="s">
+      <c r="A20" s="14" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="13" t="s">
+      <c r="A21" s="14" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="13" t="s">
+      <c r="A22" s="14" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="13" t="s">
+      <c r="A23" s="14" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="13" t="s">
+      <c r="A24" s="14" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="13" t="s">
+      <c r="A25" s="14" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="13" t="s">
+      <c r="A26" s="14" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="14" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="13" t="s">
+      <c r="A28" s="14" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="13" t="s">
+      <c r="A29" s="14" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3818,275 +3894,275 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="11"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="12" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="12" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="12" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="12" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="13"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="13"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="13"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="12" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="13"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="13"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="11" t="s">
+      <c r="A12" s="12" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="13"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="11" t="s">
+      <c r="A13" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="11" t="s">
+      <c r="A14" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="13"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="12" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="13"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="13"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="11" t="s">
+      <c r="A17" s="12" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="13"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="11" t="s">
+      <c r="A18" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="13"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="13"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="11" t="s">
+      <c r="A20" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="13"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="11" t="s">
+      <c r="A21" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="13"/>
-      <c r="H21" s="12"/>
+      <c r="B21" s="5"/>
+      <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="13"/>
-      <c r="H22" s="12"/>
+      <c r="B22" s="5"/>
+      <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="13"/>
-      <c r="H23" s="12"/>
+      <c r="B23" s="5"/>
+      <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="11" t="s">
+      <c r="A24" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B24" s="13"/>
-      <c r="H24" s="12"/>
+      <c r="B24" s="5"/>
+      <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="13"/>
-      <c r="H25" s="12"/>
+      <c r="B25" s="5"/>
+      <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="H26" s="12"/>
+      <c r="B26" s="5"/>
+      <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="11" t="s">
+      <c r="A27" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="13"/>
-      <c r="H27" s="12"/>
+      <c r="B27" s="5"/>
+      <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="11" t="s">
+      <c r="A28" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="13"/>
-      <c r="H28" s="12"/>
+      <c r="B28" s="5"/>
+      <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="11" t="s">
+      <c r="A29" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="13"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="11" t="s">
+      <c r="A30" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="13"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="11" t="s">
+      <c r="A31" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="13"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="11" t="s">
+      <c r="A32" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="13"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="13"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="11" t="s">
+      <c r="A34" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="13"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="13"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="12"/>
+      <c r="H36" s="13"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="12"/>
+      <c r="H37" s="13"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="12"/>
+      <c r="H38" s="13"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="12"/>
+      <c r="H39" s="13"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="12"/>
+      <c r="H40" s="13"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="12"/>
+      <c r="H41" s="13"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="12"/>
+      <c r="H42" s="13"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="12"/>
+      <c r="H43" s="13"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="12"/>
+      <c r="H44" s="13"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="12"/>
+      <c r="H45" s="13"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="12"/>
+      <c r="H46" s="13"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="12"/>
+      <c r="H47" s="13"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="12"/>
+      <c r="H48" s="13"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="12"/>
+      <c r="H49" s="13"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="12"/>
+      <c r="H50" s="13"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="12"/>
+      <c r="H51" s="13"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4100,8 +4176,8 @@
   <sheetPr/>
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I32" sqref="I32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4111,177 +4187,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="10" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="10" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="10" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="10" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="10" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="10" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="10" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="10" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="10" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="10" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="10" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="10" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="10" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="10" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="10" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="10" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="10" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="10" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="10" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="10" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="10" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="10" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="10" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="10" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="10" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="10" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="10" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="10" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="10" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="10" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="10" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4297,7 +4373,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="666"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="667"/>
   </bookViews>
   <sheets>
     <sheet name="Netty" sheetId="11" r:id="rId1"/>
@@ -991,10 +991,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1034,14 +1034,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,29 +1056,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1086,14 +1064,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1123,19 +1093,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1147,8 +1138,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1163,17 +1170,10 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1192,13 +1192,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1216,145 +1354,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,13 +1366,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,8 +1389,64 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1398,8 +1454,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1419,36 +1475,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1457,32 +1483,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1491,145 +1491,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2073,8 +2073,8 @@
   <sheetPr/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2083,72 +2083,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
@@ -4022,56 +4022,48 @@
       <c r="A21" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="B21" s="5"/>
       <c r="H21" s="13"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B22" s="5"/>
       <c r="H22" s="13"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="B23" s="5"/>
       <c r="H23" s="13"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B24" s="5"/>
       <c r="H24" s="13"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B25" s="5"/>
       <c r="H25" s="13"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B26" s="5"/>
       <c r="H26" s="13"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="12" t="s">
         <v>220</v>
       </c>
-      <c r="B27" s="5"/>
       <c r="H27" s="13"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B28" s="5"/>
       <c r="H28" s="13"/>
     </row>
     <row r="29" spans="1:8">

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="667"/>
+    <workbookView windowWidth="19815" windowHeight="8010" tabRatio="887" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Netty" sheetId="11" r:id="rId1"/>
@@ -991,12 +991,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1026,10 +1026,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1040,8 +1049,61 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1056,14 +1118,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1071,30 +1149,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1108,72 +1163,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1192,7 +1185,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1204,19 +1275,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1228,67 +1323,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1300,55 +1347,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1360,19 +1359,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,11 +1379,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1406,6 +1405,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1442,10 +1450,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1460,26 +1466,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,10 +1484,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,137 +1496,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1664,16 +1657,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2073,7 +2062,7 @@
   <sheetPr/>
   <dimension ref="A1:A49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
@@ -3051,7 +3040,7 @@
   <dimension ref="A1:Q50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="E8:F8"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3063,68 +3052,68 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="Q11"/>
+      <c r="Q11" s="13"/>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -3326,7 +3315,7 @@
   <dimension ref="A1:A31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3508,7 +3497,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="15"/>
+    <col min="1" max="1" width="9" style="12"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
@@ -3729,7 +3718,7 @@
   <dimension ref="A1:A29"/>
   <sheetViews>
     <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3738,147 +3727,147 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="5" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="5" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="5" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="5" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="5" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="5" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="5" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="5" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="5" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="5" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="5" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="5" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="5" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="5" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="5" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="5" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="5" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="5" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="5" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="5" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="5" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="5" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="5" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="5" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="5" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="5" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="5" t="s">
         <v>193</v>
       </c>
     </row>
@@ -3895,266 +3884,266 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:A35"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
+    <col min="1" max="1" width="9" style="10"/>
     <col min="2" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="10" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="10" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="10" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="10" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="10" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="10" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="10" t="s">
         <v>200</v>
       </c>
-      <c r="H7" s="13"/>
+      <c r="H7" s="11"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="10" t="s">
         <v>201</v>
       </c>
-      <c r="H8" s="13"/>
+      <c r="H8" s="11"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="10" t="s">
         <v>202</v>
       </c>
-      <c r="H9" s="13"/>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="10" t="s">
         <v>203</v>
       </c>
-      <c r="H10" s="13"/>
+      <c r="H10" s="11"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="10" t="s">
         <v>204</v>
       </c>
-      <c r="H11" s="13"/>
+      <c r="H11" s="11"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="10" t="s">
         <v>205</v>
       </c>
-      <c r="H12" s="13"/>
+      <c r="H12" s="11"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="10" t="s">
         <v>206</v>
       </c>
-      <c r="H13" s="13"/>
+      <c r="H13" s="11"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="10" t="s">
         <v>207</v>
       </c>
-      <c r="H14" s="13"/>
+      <c r="H14" s="11"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="10" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="13"/>
+      <c r="H15" s="11"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="10" t="s">
         <v>209</v>
       </c>
-      <c r="H16" s="13"/>
+      <c r="H16" s="11"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="10" t="s">
         <v>210</v>
       </c>
-      <c r="H17" s="13"/>
+      <c r="H17" s="11"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="10" t="s">
         <v>211</v>
       </c>
-      <c r="H18" s="13"/>
+      <c r="H18" s="11"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="10" t="s">
         <v>212</v>
       </c>
-      <c r="H19" s="13"/>
+      <c r="H19" s="11"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="10" t="s">
         <v>213</v>
       </c>
-      <c r="H20" s="13"/>
+      <c r="H20" s="11"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="10" t="s">
         <v>214</v>
       </c>
-      <c r="H21" s="13"/>
+      <c r="H21" s="11"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="10" t="s">
         <v>215</v>
       </c>
-      <c r="H22" s="13"/>
+      <c r="H22" s="11"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="10" t="s">
         <v>216</v>
       </c>
-      <c r="H23" s="13"/>
+      <c r="H23" s="11"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="10" t="s">
         <v>217</v>
       </c>
-      <c r="H24" s="13"/>
+      <c r="H24" s="11"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="12" t="s">
+      <c r="A25" s="10" t="s">
         <v>218</v>
       </c>
-      <c r="H25" s="13"/>
+      <c r="H25" s="11"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="12" t="s">
+      <c r="A26" s="10" t="s">
         <v>219</v>
       </c>
-      <c r="H26" s="13"/>
+      <c r="H26" s="11"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="12" t="s">
+      <c r="A27" s="10" t="s">
         <v>220</v>
       </c>
-      <c r="H27" s="13"/>
+      <c r="H27" s="11"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="12" t="s">
+      <c r="A28" s="10" t="s">
         <v>221</v>
       </c>
-      <c r="H28" s="13"/>
+      <c r="H28" s="11"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="12" t="s">
+      <c r="A29" s="10" t="s">
         <v>222</v>
       </c>
-      <c r="H29" s="13"/>
+      <c r="H29" s="11"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="12" t="s">
+      <c r="A30" s="10" t="s">
         <v>223</v>
       </c>
-      <c r="H30" s="13"/>
+      <c r="H30" s="11"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="12" t="s">
+      <c r="A31" s="10" t="s">
         <v>224</v>
       </c>
-      <c r="H31" s="13"/>
+      <c r="H31" s="11"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="12" t="s">
+      <c r="A32" s="10" t="s">
         <v>225</v>
       </c>
-      <c r="H32" s="13"/>
+      <c r="H32" s="11"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="12" t="s">
+      <c r="A33" s="10" t="s">
         <v>226</v>
       </c>
-      <c r="H33" s="13"/>
+      <c r="H33" s="11"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="12" t="s">
+      <c r="A34" s="10" t="s">
         <v>227</v>
       </c>
-      <c r="H34" s="13"/>
+      <c r="H34" s="11"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="10" t="s">
         <v>228</v>
       </c>
-      <c r="H35" s="13"/>
+      <c r="H35" s="11"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="13"/>
+      <c r="H36" s="11"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="13"/>
+      <c r="H37" s="11"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="13"/>
+      <c r="H38" s="11"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="13"/>
+      <c r="H39" s="11"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="13"/>
+      <c r="H40" s="11"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="13"/>
+      <c r="H41" s="11"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="13"/>
+      <c r="H42" s="11"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="13"/>
+      <c r="H43" s="11"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="13"/>
+      <c r="H44" s="11"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="13"/>
+      <c r="H45" s="11"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="13"/>
+      <c r="H46" s="11"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="13"/>
+      <c r="H47" s="11"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="13"/>
+      <c r="H48" s="11"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="13"/>
+      <c r="H49" s="11"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="13"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="13"/>
+      <c r="H51" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4168,8 +4157,8 @@
   <sheetPr/>
   <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4179,177 +4168,177 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>256</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>263</v>
       </c>
     </row>
@@ -4365,7 +4354,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="887" activeTab="7"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="887" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="redis" sheetId="5" r:id="rId1"/>
@@ -16,19 +16,20 @@
     <sheet name="Netty" sheetId="11" r:id="rId7"/>
     <sheet name="dubbo" sheetId="2" r:id="rId8"/>
     <sheet name="zk" sheetId="1" r:id="rId9"/>
-    <sheet name="mybatis" sheetId="12" r:id="rId10"/>
-    <sheet name="Spring" sheetId="7" r:id="rId11"/>
-    <sheet name="springboot" sheetId="10" r:id="rId12"/>
-    <sheet name="Kafka" sheetId="6" r:id="rId13"/>
-    <sheet name="携程项目相关" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet1" sheetId="13" r:id="rId15"/>
+    <sheet name="MySQL" sheetId="16" r:id="rId10"/>
+    <sheet name="mybatis" sheetId="12" r:id="rId11"/>
+    <sheet name="Spring" sheetId="7" r:id="rId12"/>
+    <sheet name="springboot" sheetId="10" r:id="rId13"/>
+    <sheet name="Kafka" sheetId="6" r:id="rId14"/>
+    <sheet name="携程项目相关" sheetId="14" r:id="rId15"/>
+    <sheet name="Sheet1" sheetId="13" r:id="rId16"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="371">
   <si>
     <t>项目中缓存是如何使用的？为什么要用缓存？</t>
   </si>
@@ -937,6 +938,9 @@
   </si>
   <si>
     <t>一对一、一对多的关联查询 ？</t>
+  </si>
+  <si>
+    <t>mybatis工作流程</t>
   </si>
   <si>
     <t>Spring中的声明式事务</t>
@@ -1195,75 +1199,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1273,6 +1208,13 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1294,15 +1236,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1317,8 +1251,31 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1333,7 +1290,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1354,7 +1358,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1366,61 +1454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1438,7 +1478,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1450,49 +1502,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1504,37 +1532,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,24 +1549,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1577,6 +1563,39 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1596,6 +1615,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1610,41 +1649,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1653,10 +1657,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1665,133 +1669,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2238,10 +2242,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A35"/>
+  <dimension ref="A1:A47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2425,6 +2429,42 @@
         <v>34</v>
       </c>
     </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="9"/>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="9"/>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="9"/>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="9"/>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="9"/>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="9"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="9"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="9"/>
+    </row>
+    <row r="44" spans="1:1">
+      <c r="A44" s="9"/>
+    </row>
+    <row r="45" spans="1:1">
+      <c r="A45" s="9"/>
+    </row>
+    <row r="46" spans="1:1">
+      <c r="A46" s="9"/>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="9"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -2434,10 +2474,26 @@
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A14"/>
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:A15"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2515,19 +2571,24 @@
         <v>302</v>
       </c>
     </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>303</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2538,32 +2599,32 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="6" spans="1:1">
       <c r="A6" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:1">
@@ -2573,17 +2634,17 @@
     </row>
     <row r="8" spans="1:1">
       <c r="A8" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
     </row>
     <row r="9" spans="1:1">
       <c r="A9" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
     </row>
     <row r="11" spans="1:1">
@@ -2601,13 +2662,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2617,128 +2678,128 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="K6" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="5" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="L7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="O7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="L8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="5" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="5" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L12" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="14:14">
       <c r="N14" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="17" spans="13:13">
       <c r="M17" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
     </row>
     <row r="20" spans="14:14">
       <c r="N20" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
     </row>
     <row r="90" spans="1:1">
       <c r="A90" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:1">
       <c r="A121" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:1">
       <c r="A124" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:1">
       <c r="A131" s="5" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
   </sheetData>
@@ -2747,7 +2808,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:B11"/>
@@ -2763,67 +2824,67 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="4" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B1" s="5"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B2" s="5"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B3" s="5"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="4" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B4" s="5"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B5" s="5"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B6" s="5"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="4" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B7" s="5"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B8" s="5"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B9" s="5"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B10" s="5"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B11" s="5"/>
     </row>
@@ -2833,7 +2894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1"/>
@@ -2846,7 +2907,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -2856,7 +2917,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:J17"/>
@@ -2905,31 +2966,31 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2937,31 +2998,31 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2969,31 +3030,31 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J4" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -3001,31 +3062,31 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="D5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J5" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -3033,28 +3094,28 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="D6" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="E6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J6" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -3062,28 +3123,28 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="D7" t="s">
         <v>359</v>
       </c>
-      <c r="D7" t="s">
-        <v>358</v>
-      </c>
       <c r="E7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -3091,28 +3152,28 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J8" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -3120,25 +3181,25 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -3146,31 +3207,31 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="D10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="E10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J10" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3178,22 +3239,22 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J11" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3201,22 +3262,22 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J12" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3224,22 +3285,22 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -3247,22 +3308,22 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J14" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -3270,22 +3331,22 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J15" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -3293,22 +3354,22 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -3316,22 +3377,22 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="J17" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3343,10 +3404,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A30"/>
+  <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3498,9 +3559,6 @@
       <c r="A29" s="10" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3514,8 +3572,8 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:A35"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A35" sqref="A27:A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3788,8 +3846,8 @@
   <sheetPr/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H40" sqref="H40"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C60" sqref="C60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
@@ -3801,301 +3859,301 @@
       <c r="A1" s="15" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="7"/>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="7"/>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="7"/>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="7"/>
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="7"/>
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="7"/>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="15" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="7"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="15" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="7"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="7"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="7"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="15" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="7"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="7"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="15" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="5"/>
+      <c r="B13" s="7"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="5"/>
+      <c r="B14" s="7"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="5"/>
+      <c r="B15" s="7"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="16" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="5"/>
+      <c r="B16" s="7"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="16" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="5"/>
+      <c r="B17" s="7"/>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="16" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="5"/>
+      <c r="B18" s="7"/>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="16" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="5"/>
+      <c r="B19" s="7"/>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="16" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="5"/>
+      <c r="B20" s="7"/>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="16" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="5"/>
+      <c r="B21" s="7"/>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="16" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="5"/>
+      <c r="B22" s="7"/>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="5"/>
+      <c r="B23" s="7"/>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="15" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="5"/>
+      <c r="B24" s="7"/>
     </row>
     <row r="25" spans="1:2">
       <c r="A25" s="15" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="5"/>
+      <c r="B25" s="7"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="15" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="5"/>
+      <c r="B26" s="7"/>
     </row>
     <row r="27" spans="1:2">
       <c r="A27" s="15" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="5"/>
+      <c r="B27" s="7"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="15" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="5"/>
+      <c r="B28" s="7"/>
     </row>
     <row r="29" spans="1:2">
       <c r="A29" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="5"/>
+      <c r="B29" s="7"/>
     </row>
     <row r="30" spans="1:2">
       <c r="A30" s="15" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="5"/>
+      <c r="B30" s="7"/>
     </row>
     <row r="31" spans="1:2">
       <c r="A31" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="5"/>
+      <c r="B31" s="7"/>
     </row>
     <row r="32" spans="1:2">
       <c r="A32" s="15" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="5"/>
+      <c r="B32" s="7"/>
     </row>
     <row r="33" spans="1:2">
       <c r="A33" s="15" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="5"/>
+      <c r="B33" s="7"/>
     </row>
     <row r="34" spans="1:2">
       <c r="A34" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="5"/>
+      <c r="B34" s="7"/>
     </row>
     <row r="35" spans="1:2">
       <c r="A35" s="15" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="5"/>
+      <c r="B35" s="7"/>
     </row>
     <row r="36" spans="1:2">
       <c r="A36" s="15" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="5"/>
+      <c r="B36" s="7"/>
     </row>
     <row r="37" spans="1:2">
       <c r="A37" s="15" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="5"/>
+      <c r="B37" s="7"/>
     </row>
     <row r="38" spans="1:2">
       <c r="A38" s="15" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="5"/>
+      <c r="B38" s="7"/>
     </row>
     <row r="39" spans="1:2">
       <c r="A39" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="5"/>
+      <c r="B39" s="7"/>
     </row>
     <row r="40" spans="1:2">
       <c r="A40" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="5"/>
+      <c r="B40" s="7"/>
     </row>
     <row r="41" spans="1:2">
       <c r="A41" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="5"/>
+      <c r="B41" s="7"/>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="5"/>
+      <c r="B42" s="7"/>
     </row>
     <row r="43" spans="1:2">
       <c r="A43" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="5"/>
+      <c r="B43" s="7"/>
     </row>
     <row r="44" spans="1:2">
       <c r="A44" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="5"/>
+      <c r="B44" s="7"/>
     </row>
     <row r="45" spans="1:2">
       <c r="A45" s="9" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="5"/>
+      <c r="B45" s="7"/>
     </row>
     <row r="46" spans="1:2">
       <c r="A46" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="5"/>
+      <c r="B46" s="7"/>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="5"/>
+      <c r="B47" s="7"/>
     </row>
     <row r="48" spans="1:2">
       <c r="A48" s="9" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="5"/>
+      <c r="B48" s="7"/>
     </row>
     <row r="49" spans="1:2">
       <c r="A49" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="5"/>
+      <c r="B49" s="7"/>
     </row>
     <row r="50" spans="1:2">
       <c r="A50" s="9" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="5"/>
+      <c r="B50" s="7"/>
     </row>
     <row r="51" spans="1:1">
       <c r="A51" s="12"/>
@@ -4233,8 +4291,8 @@
   <sheetPr/>
   <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4493,8 +4551,8 @@
   <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4706,22 +4764,22 @@
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="8" t="s">
+      <c r="A41" s="9" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="8" t="s">
+      <c r="A42" s="9" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="8" t="s">
+      <c r="A43" s="9" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="9" t="s">
         <v>250</v>
       </c>
     </row>
@@ -4767,8 +4825,8 @@
   <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -4923,17 +4981,17 @@
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="8" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="8" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="8" t="s">
         <v>288</v>
       </c>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="887" activeTab="9"/>
+    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="887" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="redis" sheetId="5" r:id="rId1"/>
@@ -1154,7 +1154,7 @@
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1165,7 +1165,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="0" tint="-0.25"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -1184,51 +1191,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0" tint="-0.25"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1243,6 +1215,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1250,11 +1230,40 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1266,16 +1275,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1289,18 +1290,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1311,23 +1305,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1338,6 +1315,21 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1358,13 +1350,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1376,7 +1386,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1400,133 +1410,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1542,6 +1426,114 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -1549,6 +1541,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -1571,7 +1578,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1580,22 +1587,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,149 +1649,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="32" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1812,41 +1804,37 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2242,228 +2230,192 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A47"/>
+  <dimension ref="A1:A35"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="9" t="s">
+      <c r="A30" s="5" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="9" t="s">
+      <c r="A31" s="5" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="9" t="s">
+      <c r="A32" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="9" t="s">
+      <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="9"/>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" s="9"/>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="9"/>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="9"/>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="9"/>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="9"/>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="9"/>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="9"/>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="9"/>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" s="9"/>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="9"/>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2476,8 +2428,8 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2492,87 +2444,87 @@
   <sheetPr/>
   <dimension ref="A1:A15"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="5"/>
+    <col min="1" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="6" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="6" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="6" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2585,76 +2537,287 @@
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="6"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="8"/>
+    <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="5" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="6"/>
+      <c r="H2" s="6"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="5" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="5" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="8" t="s">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="5" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="8" t="s">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="5" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="8" t="s">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="5" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="8" t="s">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="5" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="8" t="s">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="5" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="8"/>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="8"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="8"/>
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="5"/>
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="5"/>
+      <c r="B13" s="6"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="10"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="10"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" s="10"/>
+      <c r="B16" s="6"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="10"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="10"/>
+      <c r="B18" s="6"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="6"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="10"/>
+      <c r="B19" s="6"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="10"/>
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+    </row>
+    <row r="21" spans="1:8">
+      <c r="A21" s="10"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+    </row>
+    <row r="22" spans="1:8">
+      <c r="A22" s="10"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="10"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="10"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="6"/>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="10"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2668,51 +2831,79 @@
   <dimension ref="A1:O131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="5"/>
+    <col min="1" max="1" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="6" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" s="5" t="s">
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="6" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="5" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="6" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" s="5" t="s">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="6" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="5" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="6" t="s">
         <v>317</v>
       </c>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>318</v>
       </c>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="K6" t="s">
         <v>319</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>320</v>
       </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
       <c r="L7" t="s">
         <v>321</v>
       </c>
@@ -2721,56 +2912,111 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="6" t="s">
         <v>323</v>
       </c>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
       <c r="L8" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>325</v>
       </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
       <c r="L9" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="5" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="6" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="5" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="6" t="s">
         <v>328</v>
       </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="6" t="s">
         <v>329</v>
       </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
       <c r="L12" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="6" t="s">
         <v>330</v>
       </c>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
       <c r="M13" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="14" spans="14:14">
+    <row r="14" spans="1:14">
+      <c r="A14" s="6"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
       <c r="N14" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="17" spans="13:13">
+    <row r="15" spans="1:5">
+      <c r="A15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="6"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" s="6"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
       <c r="M17" t="s">
         <v>333</v>
       </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="6"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="14:14">
       <c r="N19" t="s">
@@ -2783,22 +3029,22 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="5" t="s">
+      <c r="A90" s="7" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="5" t="s">
+      <c r="A121" s="7" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="5" t="s">
+      <c r="A124" s="7" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="5" t="s">
+      <c r="A131" s="7" t="s">
         <v>339</v>
       </c>
     </row>
@@ -2814,79 +3060,80 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="5"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="5"/>
+      <c r="B2" s="6"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="5"/>
+      <c r="B3" s="6"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="6"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="5"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="5"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="5"/>
+      <c r="B7" s="6"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="5"/>
+      <c r="B8" s="6"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="5"/>
+      <c r="B9" s="6"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="6"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="5"/>
+      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2900,7 +3147,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3406,157 +3653,157 @@
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A29" sqref="A19:A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3572,267 +3819,267 @@
   <sheetPr/>
   <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A35" sqref="A27:A35"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="17"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="16"/>
+    <col min="2" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="18"/>
+      <c r="H7" s="12"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="18"/>
+      <c r="H8" s="12"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="18"/>
+      <c r="H9" s="12"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="18"/>
+      <c r="H10" s="12"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="12"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="12"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="12"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="18"/>
+      <c r="H14" s="12"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="18"/>
+      <c r="H15" s="12"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="15" t="s">
+      <c r="A16" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="18"/>
+      <c r="H16" s="12"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="18"/>
+      <c r="H17" s="12"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="18"/>
+      <c r="H18" s="12"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="15" t="s">
+      <c r="A19" s="14" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="18"/>
+      <c r="H19" s="12"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="15" t="s">
+      <c r="A20" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="18"/>
+      <c r="H20" s="12"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="15" t="s">
+      <c r="A21" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="18"/>
+      <c r="H21" s="12"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="15" t="s">
+      <c r="A22" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="18"/>
+      <c r="H22" s="12"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="15" t="s">
+      <c r="A23" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="18"/>
+      <c r="H23" s="12"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="18"/>
+      <c r="H24" s="12"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="18"/>
+      <c r="H25" s="12"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="18"/>
+      <c r="H26" s="12"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="18"/>
+      <c r="H27" s="12"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="18"/>
+      <c r="H28" s="12"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="18"/>
+      <c r="H29" s="12"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="18"/>
+      <c r="H30" s="12"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="18"/>
+      <c r="H31" s="12"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="18"/>
+      <c r="H32" s="12"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="18"/>
+      <c r="H33" s="12"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="18"/>
+      <c r="H34" s="12"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="18"/>
+      <c r="H35" s="12"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="18"/>
+      <c r="H36" s="12"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="18"/>
+      <c r="H37" s="12"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="18"/>
+      <c r="H38" s="12"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="18"/>
+      <c r="H39" s="12"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="18"/>
+      <c r="H40" s="12"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="18"/>
+      <c r="H41" s="12"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="18"/>
+      <c r="H42" s="12"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="18"/>
+      <c r="H43" s="12"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="18"/>
+      <c r="H44" s="12"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="18"/>
+      <c r="H45" s="12"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="18"/>
+      <c r="H46" s="12"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="18"/>
+      <c r="H47" s="12"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="18"/>
+      <c r="H48" s="12"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="18"/>
+      <c r="H49" s="12"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="18"/>
+      <c r="H50" s="12"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="18"/>
+      <c r="H51" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3846,320 +4093,321 @@
   <sheetPr/>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="17.125" style="14" customWidth="1"/>
+    <col min="1" max="1" width="17.125" style="12" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="7"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="9"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="9"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="9"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="14" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="9"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="14" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="9"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="9"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="14" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="9"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="14" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="15" t="s">
+      <c r="A12" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="9"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="9"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="15" t="s">
+      <c r="A14" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="9"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="15" t="s">
+      <c r="A15" s="14" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="9"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="16" t="s">
+      <c r="A17" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="9"/>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="16" t="s">
+      <c r="A18" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="9"/>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="9"/>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="9"/>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="9"/>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="9"/>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="9"/>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="15" t="s">
+      <c r="A24" s="14" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="9"/>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="9"/>
     </row>
     <row r="26" spans="1:2">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="9"/>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="15" t="s">
+      <c r="A27" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="9"/>
     </row>
     <row r="28" spans="1:2">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="9"/>
     </row>
     <row r="29" spans="1:2">
-      <c r="A29" s="15" t="s">
+      <c r="A29" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="9"/>
     </row>
     <row r="30" spans="1:2">
-      <c r="A30" s="15" t="s">
+      <c r="A30" s="14" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="9"/>
     </row>
     <row r="31" spans="1:2">
-      <c r="A31" s="15" t="s">
+      <c r="A31" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="9"/>
     </row>
     <row r="32" spans="1:2">
-      <c r="A32" s="15" t="s">
+      <c r="A32" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="9"/>
     </row>
     <row r="33" spans="1:2">
-      <c r="A33" s="15" t="s">
+      <c r="A33" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="9"/>
     </row>
     <row r="34" spans="1:2">
-      <c r="A34" s="15" t="s">
+      <c r="A34" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="9"/>
     </row>
     <row r="35" spans="1:2">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="14" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="9"/>
     </row>
     <row r="36" spans="1:2">
-      <c r="A36" s="15" t="s">
+      <c r="A36" s="14" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="9"/>
     </row>
     <row r="37" spans="1:2">
-      <c r="A37" s="15" t="s">
+      <c r="A37" s="14" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="9"/>
     </row>
     <row r="38" spans="1:2">
-      <c r="A38" s="15" t="s">
+      <c r="A38" s="14" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="9"/>
     </row>
     <row r="39" spans="1:2">
-      <c r="A39" s="15" t="s">
+      <c r="A39" s="14" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="9"/>
     </row>
     <row r="40" spans="1:2">
-      <c r="A40" s="15" t="s">
+      <c r="A40" s="14" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="9"/>
     </row>
     <row r="41" spans="1:2">
-      <c r="A41" s="15" t="s">
+      <c r="A41" s="14" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="9"/>
     </row>
     <row r="42" spans="1:2">
-      <c r="A42" s="15" t="s">
+      <c r="A42" s="14" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="9"/>
     </row>
     <row r="43" spans="1:2">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="9"/>
     </row>
     <row r="44" spans="1:2">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="9"/>
     </row>
     <row r="45" spans="1:2">
-      <c r="A45" s="9" t="s">
+      <c r="A45" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="9"/>
     </row>
     <row r="46" spans="1:2">
-      <c r="A46" s="9" t="s">
+      <c r="A46" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="9"/>
     </row>
     <row r="47" spans="1:2">
-      <c r="A47" s="9" t="s">
+      <c r="A47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="9"/>
     </row>
     <row r="48" spans="1:2">
-      <c r="A48" s="9" t="s">
+      <c r="A48" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="9"/>
     </row>
     <row r="49" spans="1:2">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="9"/>
     </row>
     <row r="50" spans="1:2">
-      <c r="A50" s="9" t="s">
+      <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="12"/>
+      <c r="A51" s="8"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="12"/>
+      <c r="A52" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4173,42 +4421,42 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
-    <col min="1" max="1" width="9" style="13"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4224,61 +4472,62 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="12"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B1" s="13"/>
+      <c r="B1" s="3"/>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="B2" s="13"/>
+      <c r="B2" s="3"/>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="B3" s="13"/>
+      <c r="B3" s="3"/>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="B4" s="13"/>
+      <c r="B4" s="3"/>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="B5" s="13"/>
+      <c r="B5" s="3"/>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="13"/>
+      <c r="B6" s="3"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="8"/>
-      <c r="B7" s="13"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="3"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="8"/>
-      <c r="B8" s="13"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="3"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="8"/>
-      <c r="B9" s="13"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4289,254 +4538,262 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:A48"/>
+  <dimension ref="A1:C48"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:A48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+    <row r="22" spans="1:3">
+      <c r="A22" s="6" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="6" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="B23" s="6"/>
+      <c r="C23" s="6"/>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="6" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="6" t="s">
         <v>184</v>
       </c>
+      <c r="B25" s="6"/>
+      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="10" t="s">
+      <c r="A34" s="6" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="10" t="s">
+      <c r="A35" s="6" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="10" t="s">
+      <c r="A36" s="6" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="10" t="s">
+      <c r="A37" s="6" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="10" t="s">
+      <c r="A38" s="6" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="11" t="s">
+      <c r="A39" s="3" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="10" t="s">
+      <c r="A40" s="6" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="10" t="s">
+      <c r="A41" s="6" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="10" t="s">
+      <c r="A42" s="6" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="10" t="s">
+      <c r="A43" s="6" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="10" t="s">
+      <c r="A44" s="6" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="10" t="s">
+      <c r="A45" s="6" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="10" t="s">
+      <c r="A46" s="6" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+      <c r="A47" s="6" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+      <c r="A48" s="6" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4551,265 +4808,265 @@
   <sheetPr/>
   <dimension ref="A1:A50"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="7" width="9" style="7"/>
-    <col min="8" max="8" width="10.25" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="7" width="9" style="9"/>
+    <col min="8" max="8" width="10.25" style="9" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="6" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="6" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="6" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="6" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="6" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="6" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="6" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="6" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="6" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="6" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="6" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="6" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="6" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="6" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="6" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="6" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="6" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="6" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="6" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="6" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="6" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="6" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="6" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="6" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="6" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="6" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="10" t="s">
+      <c r="A28" s="6" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="10" t="s">
+      <c r="A29" s="6" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="10" t="s">
+      <c r="A30" s="6" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="10" t="s">
+      <c r="A31" s="6" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="10" t="s">
+      <c r="A32" s="6" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="10" t="s">
+      <c r="A33" s="6" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="9" t="s">
+      <c r="A34" s="5" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="9" t="s">
+      <c r="A35" s="5" t="s">
         <v>241</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="9" t="s">
+      <c r="A36" s="5" t="s">
         <v>242</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="9" t="s">
+      <c r="A37" s="5" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="9" t="s">
+      <c r="A38" s="5" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="9" t="s">
+      <c r="A39" s="5" t="s">
         <v>245</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="9" t="s">
+      <c r="A40" s="5" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="9" t="s">
+      <c r="A41" s="5" t="s">
         <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="9" t="s">
+      <c r="A42" s="5" t="s">
         <v>248</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="9" t="s">
+      <c r="A43" s="5" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="9" t="s">
+      <c r="A44" s="5" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="8" t="s">
+      <c r="A45" s="5" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="8" t="s">
+      <c r="A46" s="5" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="8" t="s">
+      <c r="A47" s="5" t="s">
         <v>253</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="8" t="s">
+      <c r="A48" s="5" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="49" spans="1:1">
-      <c r="A49" s="8" t="s">
+      <c r="A49" s="5" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="50" spans="1:1">
-      <c r="A50" s="8" t="s">
+      <c r="A50" s="5" t="s">
         <v>256</v>
       </c>
     </row>
@@ -4825,173 +5082,173 @@
   <sheetPr/>
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="16384" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="5" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="5" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="5" t="s">
         <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="5" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="5" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="5" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="5" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="5" t="s">
         <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="5" t="s">
         <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="5" t="s">
         <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="5" t="s">
         <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="5" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="5" t="s">
         <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="5" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="5" t="s">
         <v>272</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="5" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="5" t="s">
         <v>275</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="5" t="s">
         <v>276</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="5" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="5" t="s">
         <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="5" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="5" t="s">
         <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="5" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="5" t="s">
         <v>282</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="5" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="9" t="s">
+      <c r="A28" s="5" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="9" t="s">
+      <c r="A29" s="5" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="5" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="8" t="s">
+      <c r="A31" s="5" t="s">
         <v>287</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="8" t="s">
+      <c r="A32" s="5" t="s">
         <v>288</v>
       </c>
     </row>

--- a/MS.xlsx
+++ b/MS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12690" tabRatio="887" activeTab="11"/>
+    <workbookView windowWidth="24525" windowHeight="12240" tabRatio="887" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="redis" sheetId="5" r:id="rId1"/>
@@ -1150,9 +1150,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1191,6 +1191,68 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -1206,9 +1268,38 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1223,7 +1314,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1231,100 +1322,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1350,7 +1350,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1362,19 +1416,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1386,43 +1446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1434,7 +1458,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1446,19 +1470,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1470,37 +1500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1518,13 +1518,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1545,16 +1545,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1576,39 +1600,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1621,23 +1612,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1649,10 +1649,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1661,137 +1661,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1810,9 +1810,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1828,13 +1825,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2233,13 +2230,13 @@
   <dimension ref="A1:A35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="5"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -2450,81 +2447,81 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="7"/>
+    <col min="1" max="16384" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>292</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>296</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>299</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>301</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>302</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>303</v>
       </c>
     </row>
@@ -2539,285 +2536,285 @@
   <sheetPr/>
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="8"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="7"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="6"/>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6"/>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="6"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="5"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="5"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="5"/>
-      <c r="B13" s="6"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="10"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="A14" s="9"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="10"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="10"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="10"/>
-      <c r="B17" s="6"/>
-      <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+      <c r="A17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="10"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="6"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+      <c r="A18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="10"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+      <c r="A19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="10"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="6"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+      <c r="A20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="10"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="6"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+      <c r="A21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="10"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+      <c r="A22" s="9"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="10"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="6"/>
-      <c r="F23" s="6"/>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="A23" s="9"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="10"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="6"/>
-      <c r="E24" s="6"/>
-      <c r="F24" s="6"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="9"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="10"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="6"/>
-      <c r="F25" s="6"/>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+      <c r="A25" s="9"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2836,11 +2833,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="7"/>
+    <col min="1" max="1" width="9" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>313</v>
       </c>
       <c r="B1" s="4"/>
@@ -2849,7 +2846,7 @@
       <c r="E1" s="4"/>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>314</v>
       </c>
       <c r="B2" s="4"/>
@@ -2858,7 +2855,7 @@
       <c r="E2" s="4"/>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>315</v>
       </c>
       <c r="B3" s="4"/>
@@ -2867,7 +2864,7 @@
       <c r="E3" s="4"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>316</v>
       </c>
       <c r="B4" s="4"/>
@@ -2876,7 +2873,7 @@
       <c r="E4" s="4"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>317</v>
       </c>
       <c r="B5" s="4"/>
@@ -2885,7 +2882,7 @@
       <c r="E5" s="4"/>
     </row>
     <row r="6" spans="1:11">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>318</v>
       </c>
       <c r="B6" s="4"/>
@@ -2897,7 +2894,7 @@
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B7" s="4"/>
@@ -2912,7 +2909,7 @@
       </c>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>323</v>
       </c>
       <c r="B8" s="4"/>
@@ -2924,7 +2921,7 @@
       </c>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>325</v>
       </c>
       <c r="B9" s="4"/>
@@ -2936,7 +2933,7 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>327</v>
       </c>
       <c r="B10" s="4"/>
@@ -2945,7 +2942,7 @@
       <c r="E10" s="4"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>328</v>
       </c>
       <c r="B11" s="4"/>
@@ -2954,7 +2951,7 @@
       <c r="E11" s="4"/>
     </row>
     <row r="12" spans="1:12">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>329</v>
       </c>
       <c r="B12" s="4"/>
@@ -2966,7 +2963,7 @@
       </c>
     </row>
     <row r="13" spans="1:13">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>330</v>
       </c>
       <c r="B13" s="4"/>
@@ -2978,7 +2975,7 @@
       </c>
     </row>
     <row r="14" spans="1:14">
-      <c r="A14" s="6"/>
+      <c r="A14" s="4"/>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
       <c r="D14" s="4"/>
@@ -2988,21 +2985,21 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="6"/>
+      <c r="A15" s="4"/>
       <c r="B15" s="4"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="6"/>
+      <c r="A16" s="4"/>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
     </row>
     <row r="17" spans="1:13">
-      <c r="A17" s="6"/>
+      <c r="A17" s="4"/>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
@@ -3012,7 +3009,7 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="6"/>
+      <c r="A18" s="4"/>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4"/>
@@ -3029,22 +3026,22 @@
       </c>
     </row>
     <row r="90" spans="1:1">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="121" spans="1:1">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="6" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="124" spans="1:1">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>338</v>
       </c>
     </row>
     <row r="131" spans="1:1">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="6" t="s">
         <v>339</v>
       </c>
     </row>
@@ -3057,83 +3054,72 @@
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:1">
       <c r="A1" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="B1" s="6"/>
-    </row>
-    <row r="2" spans="1:2">
+    </row>
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>341</v>
       </c>
-      <c r="B2" s="6"/>
-    </row>
-    <row r="3" spans="1:2">
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:2">
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="B4" s="6"/>
-    </row>
-    <row r="5" spans="1:2">
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="B5" s="6"/>
-    </row>
-    <row r="6" spans="1:2">
+    </row>
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="B6" s="6"/>
-    </row>
-    <row r="7" spans="1:2">
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="B7" s="6"/>
-    </row>
-    <row r="8" spans="1:2">
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="B8" s="6"/>
-    </row>
-    <row r="9" spans="1:2">
+    </row>
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="B9" s="6"/>
-    </row>
-    <row r="10" spans="1:2">
+    </row>
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>349</v>
       </c>
-      <c r="B10" s="6"/>
-    </row>
-    <row r="11" spans="1:2">
+    </row>
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="B11" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3653,157 +3639,157 @@
   <sheetPr/>
   <dimension ref="A1:A29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A29" sqref="A19:A29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>63</v>
       </c>
     </row>
@@ -3820,266 +3806,266 @@
   <dimension ref="A1:H51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="9" style="16"/>
-    <col min="2" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="13"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="13" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H7" s="12"/>
+      <c r="H7" s="15"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="H8" s="12"/>
+      <c r="H8" s="15"/>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H9" s="12"/>
+      <c r="H9" s="15"/>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="H10" s="12"/>
+      <c r="H10" s="15"/>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="12"/>
+      <c r="H11" s="15"/>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="H12" s="12"/>
+      <c r="H12" s="15"/>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="12"/>
+      <c r="H13" s="15"/>
     </row>
     <row r="14" spans="1:8">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="H14" s="12"/>
+      <c r="H14" s="15"/>
     </row>
     <row r="15" spans="1:8">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H15" s="12"/>
+      <c r="H15" s="15"/>
     </row>
     <row r="16" spans="1:8">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="H16" s="12"/>
+      <c r="H16" s="15"/>
     </row>
     <row r="17" spans="1:8">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H17" s="12"/>
+      <c r="H17" s="15"/>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="H18" s="12"/>
+      <c r="H18" s="15"/>
     </row>
     <row r="19" spans="1:8">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H19" s="12"/>
+      <c r="H19" s="15"/>
     </row>
     <row r="20" spans="1:8">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="H20" s="12"/>
+      <c r="H20" s="15"/>
     </row>
     <row r="21" spans="1:8">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H21" s="12"/>
+      <c r="H21" s="15"/>
     </row>
     <row r="22" spans="1:8">
-      <c r="A22" s="14" t="s">
+      <c r="A22" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="H22" s="12"/>
+      <c r="H22" s="15"/>
     </row>
     <row r="23" spans="1:8">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H23" s="12"/>
+      <c r="H23" s="15"/>
     </row>
     <row r="24" spans="1:8">
-      <c r="A24" s="14" t="s">
+      <c r="A24" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H24" s="12"/>
+      <c r="H24" s="15"/>
     </row>
     <row r="25" spans="1:8">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="H25" s="12"/>
+      <c r="H25" s="15"/>
     </row>
     <row r="26" spans="1:8">
-      <c r="A26" s="14" t="s">
+      <c r="A26" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H26" s="12"/>
+      <c r="H26" s="15"/>
     </row>
     <row r="27" spans="1:8">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H27" s="12"/>
+      <c r="H27" s="15"/>
     </row>
     <row r="28" spans="1:8">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="H28" s="12"/>
+      <c r="H28" s="15"/>
     </row>
     <row r="29" spans="1:8">
-      <c r="A29" s="14" t="s">
+      <c r="A29" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H29" s="12"/>
+      <c r="H29" s="15"/>
     </row>
     <row r="30" spans="1:8">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="H30" s="12"/>
+      <c r="H30" s="15"/>
     </row>
     <row r="31" spans="1:8">
-      <c r="A31" s="14" t="s">
+      <c r="A31" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H31" s="12"/>
+      <c r="H31" s="15"/>
     </row>
     <row r="32" spans="1:8">
-      <c r="A32" s="14" t="s">
+      <c r="A32" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="H32" s="12"/>
+      <c r="H32" s="15"/>
     </row>
     <row r="33" spans="1:8">
-      <c r="A33" s="14" t="s">
+      <c r="A33" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H33" s="12"/>
+      <c r="H33" s="15"/>
     </row>
     <row r="34" spans="1:8">
-      <c r="A34" s="14" t="s">
+      <c r="A34" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="H34" s="12"/>
+      <c r="H34" s="15"/>
     </row>
     <row r="35" spans="1:8">
-      <c r="A35" s="14" t="s">
+      <c r="A35" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H35" s="12"/>
+      <c r="H35" s="15"/>
     </row>
     <row r="36" spans="8:8">
-      <c r="H36" s="12"/>
+      <c r="H36" s="15"/>
     </row>
     <row r="37" spans="8:8">
-      <c r="H37" s="12"/>
+      <c r="H37" s="15"/>
     </row>
     <row r="38" spans="8:8">
-      <c r="H38" s="12"/>
+      <c r="H38" s="15"/>
     </row>
     <row r="39" spans="8:8">
-      <c r="H39" s="12"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="8:8">
-      <c r="H40" s="12"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="8:8">
-      <c r="H41" s="12"/>
+      <c r="H41" s="15"/>
     </row>
     <row r="42" spans="8:8">
-      <c r="H42" s="12"/>
+      <c r="H42" s="15"/>
     </row>
     <row r="43" spans="8:8">
-      <c r="H43" s="12"/>
+      <c r="H43" s="15"/>
     </row>
     <row r="44" spans="8:8">
-      <c r="H44" s="12"/>
+      <c r="H44" s="15"/>
     </row>
     <row r="45" spans="8:8">
-      <c r="H45" s="12"/>
+      <c r="H45" s="15"/>
     </row>
     <row r="46" spans="8:8">
-      <c r="H46" s="12"/>
+      <c r="H46" s="15"/>
     </row>
     <row r="47" spans="8:8">
-      <c r="H47" s="12"/>
+      <c r="H47" s="15"/>
     </row>
     <row r="48" spans="8:8">
-      <c r="H48" s="12"/>
+      <c r="H48" s="15"/>
     </row>
     <row r="49" spans="8:8">
-      <c r="H49" s="12"/>
+      <c r="H49" s="15"/>
     </row>
     <row r="50" spans="8:8">
-      <c r="H50" s="12"/>
+      <c r="H50" s="15"/>
     </row>
     <row r="51" spans="8:8">
-      <c r="H51" s="12"/>
+      <c r="H51" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4091,323 +4077,273 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B52"/>
+  <dimension ref="A1:A52"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="17.125" style="12" customWidth="1"/>
-    <col min="2" max="16384" width="9" style="13"/>
+    <col min="2" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="B1" s="9"/>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="14" t="s">
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B2" s="9"/>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="14" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="9"/>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="14" t="s">
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="9"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="14" t="s">
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="9"/>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="14" t="s">
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="B6" s="9"/>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" s="14" t="s">
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B7" s="9"/>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" s="14" t="s">
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="B8" s="9"/>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" s="14" t="s">
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="B9" s="9"/>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" s="14" t="s">
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="B10" s="9"/>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" s="14" t="s">
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="B11" s="9"/>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="14" t="s">
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B12" s="9"/>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="14" t="s">
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="B13" s="9"/>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="14" t="s">
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="9"/>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="14" t="s">
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="B15" s="9"/>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="15" t="s">
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="B16" s="9"/>
-    </row>
-    <row r="17" spans="1:2">
-      <c r="A17" s="15" t="s">
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="14" t="s">
         <v>115</v>
       </c>
-      <c r="B17" s="9"/>
-    </row>
-    <row r="18" spans="1:2">
-      <c r="A18" s="15" t="s">
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="B18" s="9"/>
-    </row>
-    <row r="19" spans="1:2">
-      <c r="A19" s="15" t="s">
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="14" t="s">
         <v>117</v>
       </c>
-      <c r="B19" s="9"/>
-    </row>
-    <row r="20" spans="1:2">
-      <c r="A20" s="15" t="s">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="B20" s="9"/>
-    </row>
-    <row r="21" spans="1:2">
-      <c r="A21" s="15" t="s">
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="14" t="s">
         <v>119</v>
       </c>
-      <c r="B21" s="9"/>
-    </row>
-    <row r="22" spans="1:2">
-      <c r="A22" s="15" t="s">
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
         <v>120</v>
       </c>
-      <c r="B22" s="9"/>
-    </row>
-    <row r="23" spans="1:2">
-      <c r="A23" s="15" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="14" t="s">
         <v>121</v>
       </c>
-      <c r="B23" s="9"/>
-    </row>
-    <row r="24" spans="1:2">
-      <c r="A24" s="14" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="B24" s="9"/>
-    </row>
-    <row r="25" spans="1:2">
-      <c r="A25" s="14" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="B25" s="9"/>
-    </row>
-    <row r="26" spans="1:2">
-      <c r="A26" s="14" t="s">
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="B26" s="9"/>
-    </row>
-    <row r="27" spans="1:2">
-      <c r="A27" s="14" t="s">
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="B27" s="9"/>
-    </row>
-    <row r="28" spans="1:2">
-      <c r="A28" s="14" t="s">
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="B28" s="9"/>
-    </row>
-    <row r="29" spans="1:2">
-      <c r="A29" s="14" t="s">
+    </row>
+    <row r="29" spans="1:1">
+      <c r="A29" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="B29" s="9"/>
-    </row>
-    <row r="30" spans="1:2">
-      <c r="A30" s="14" t="s">
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B30" s="9"/>
-    </row>
-    <row r="31" spans="1:2">
-      <c r="A31" s="14" t="s">
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B31" s="9"/>
-    </row>
-    <row r="32" spans="1:2">
-      <c r="A32" s="14" t="s">
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B32" s="9"/>
-    </row>
-    <row r="33" spans="1:2">
-      <c r="A33" s="14" t="s">
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B33" s="9"/>
-    </row>
-    <row r="34" spans="1:2">
-      <c r="A34" s="14" t="s">
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="B34" s="9"/>
-    </row>
-    <row r="35" spans="1:2">
-      <c r="A35" s="14" t="s">
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="B35" s="9"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="14" t="s">
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="B36" s="9"/>
-    </row>
-    <row r="37" spans="1:2">
-      <c r="A37" s="14" t="s">
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="B37" s="9"/>
-    </row>
-    <row r="38" spans="1:2">
-      <c r="A38" s="14" t="s">
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="B38" s="9"/>
-    </row>
-    <row r="39" spans="1:2">
-      <c r="A39" s="14" t="s">
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="B39" s="9"/>
-    </row>
-    <row r="40" spans="1:2">
-      <c r="A40" s="14" t="s">
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="B40" s="9"/>
-    </row>
-    <row r="41" spans="1:2">
-      <c r="A41" s="14" t="s">
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B41" s="9"/>
-    </row>
-    <row r="42" spans="1:2">
-      <c r="A42" s="14" t="s">
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="B42" s="9"/>
-    </row>
-    <row r="43" spans="1:2">
+    </row>
+    <row r="43" spans="1:1">
       <c r="A43" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="B43" s="9"/>
-    </row>
-    <row r="44" spans="1:2">
+    </row>
+    <row r="44" spans="1:1">
       <c r="A44" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B44" s="9"/>
-    </row>
-    <row r="45" spans="1:2">
+    </row>
+    <row r="45" spans="1:1">
       <c r="A45" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="B45" s="9"/>
-    </row>
-    <row r="46" spans="1:2">
+    </row>
+    <row r="46" spans="1:1">
       <c r="A46" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="9"/>
-    </row>
-    <row r="47" spans="1:2">
+    </row>
+    <row r="47" spans="1:1">
       <c r="A47" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="B47" s="9"/>
-    </row>
-    <row r="48" spans="1:2">
+    </row>
+    <row r="48" spans="1:1">
       <c r="A48" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="B48" s="9"/>
-    </row>
-    <row r="49" spans="1:2">
+    </row>
+    <row r="49" spans="1:1">
       <c r="A49" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="B49" s="9"/>
-    </row>
-    <row r="50" spans="1:2">
+    </row>
+    <row r="50" spans="1:1">
       <c r="A50" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="B50" s="9"/>
     </row>
     <row r="51" spans="1:1">
-      <c r="A51" s="8"/>
+      <c r="A51" s="7"/>
     </row>
     <row r="52" spans="1:1">
-      <c r="A52" s="8"/>
+      <c r="A52" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4421,13 +4357,13 @@
   <dimension ref="A1:A6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5"/>
   <cols>
     <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -4446,17 +4382,17 @@
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4477,7 +4413,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="9" style="10"/>
+    <col min="1" max="1" width="9" style="9"/>
     <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
@@ -4538,262 +4474,254 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C48"/>
+  <dimension ref="A1:A48"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:A48"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9" style="9"/>
+    <col min="1" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="8" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="8" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="8" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="8" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="8" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="8" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="8" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="8" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="8" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="8" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="8" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="8" t="s">
         <v>173</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="8" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="8" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="8" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="8" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="8" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="8" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="8" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="6" t="s">
+    <row r="22" spans="1:1">
+      <c r="A22" s="8" t="s">
         <v>181</v>
       </c>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="6" t="s">
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="8" t="s">
         <v>182</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="6" t="s">
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="8" t="s">
         <v>183</v>
       </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="6" t="s">
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="8" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="8" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="8" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="8" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="8" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="8" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="8" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="34" spans="1:1">
-      <c r="A34" s="6" t="s">
+      <c r="A34" s="8" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
+      <c r="A35" s="8" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
+      <c r="A36" s="8" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:1">
-      <c r="A37" s="6" t="s">
+      <c r="A37" s="8" t="s">
         <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:1">
-      <c r="A38" s="6" t="s">
+      <c r="A38" s="8" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:1">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
+      <c r="A40" s="8" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
+      <c r="A41" s="8" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="8" t="s">
         <v>201</v>
       </c>
     </row>
     <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
+      <c r="A43" s="8" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="44" spans="1:1">
-      <c r="A44" s="6" t="s">
+      <c r="A44" s="8" t="s">
         <v>202</v>
       </c>
     </row>
     <row r="45" spans="1:1">
-      <c r="A45" s="6" t="s">
+      <c r="A45" s="8" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="46" spans="1:1">
-      <c r="A46" s="6" t="s">
+      <c r="A46" s="8" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="47" spans="1:1">
-      <c r="A47" s="6" t="s">
+      <c r="A47" s="8" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="48" spans="1:1">
-      <c r="A48" s="6" t="s">
+      <c r="A48" s="8" t="s">
         <v>206</v>
       </c>
     </row>
@@ -4814,174 +4742,174 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="9" style="11"/>
-    <col min="2" max="7" width="9" style="9"/>
-    <col min="8" max="8" width="10.25" style="9" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="9"/>
+    <col min="1" max="1" width="9" style="10"/>
+    <col min="2" max="7" width="9" style="8"/>
+    <col min="8" max="8" width="10.25" style="8" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="4" t="s">
         <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="4" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="4" t="s">
         <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="4" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="6" spans="1:1">
-      <c r="A6" s="6" t="s">
+      <c r="A6" s="4" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:1">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="4" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:1">
-      <c r="A8" s="6" t="s">
+      <c r="A8" s="4" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="4" t="s">
         <v>215</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="6" t="s">
+      <c r="A10" s="4" t="s">
         <v>216</v>
       </c>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="6" t="s">
+      <c r="A11" s="4" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="4" t="s">
         <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="6" t="s">
+      <c r="A13" s="4" t="s">
         <v>219</v>
       </c>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="6" t="s">
+      <c r="A14" s="4" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="4" t="s">
         <v>221</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="4" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="6" t="s">
+      <c r="A17" s="4" t="s">
         <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="6" t="s">
+      <c r="A18" s="4" t="s">
         <v>224</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="6" t="s">
+      <c r="A19" s="4" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="6" t="s">
+      <c r="A20" s="4" t="s">
         <v>226</v>
       </c>
     </row>
     <row r="21" spans="1:1">
-      <c r="A21" s="6" t="s">
+      <c r="A21" s="4" t="s">
         <v>227</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="4" t="s">
         <v>228</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="6" t="s">
+      <c r="A23" s="4" t="s">
         <v>229</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="6" t="s">
+      <c r="A24" s="4" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="25" spans="1:1">
-      <c r="A25" s="6" t="s">
+      <c r="A25" s="4" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="26" spans="1:1">
-      <c r="A26" s="6" t="s">
+      <c r="A26" s="4" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="6" t="s">
+      <c r="A27" s="4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="28" spans="1:1">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="6" t="s">
+      <c r="A29" s="4" t="s">
         <v>235</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="6" t="s">
+      <c r="A30" s="4" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="6" t="s">
+      <c r="A31" s="4" t="s">
         <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="6" t="s">
+      <c r="A32" s="4" t="s">
         <v>238</v>
       </c>
     </row>
     <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
+      <c r="A33" s="4" t="s">
         <v>239</v>
       </c>
     </row>
@@ -5089,7 +5017,7 @@
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" style="5"/>
-    <col min="2" max="16384" width="9" style="6"/>
+    <col min="2" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
